--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_EQ组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -88,9 +88,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>EQ组</t>
-  </si>
-  <si>
     <t>对应backlog序号</t>
   </si>
   <si>
@@ -119,10 +116,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>裔玲玲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>吴永余</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -140,14 +133,6 @@
   </si>
   <si>
     <t>【租客PC】- 优化了搜索房源的输入框，增加回车可直接搜索</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】- 房东PC页面的统计的规则调整</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -814,7 +799,7 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,13 +890,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>20</v>
@@ -927,80 +912,50 @@
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N2" s="17">
         <v>42533</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
     </row>
     <row r="3" spans="1:20" s="32" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="17">
-        <v>42533</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="17">
-        <v>42533</v>
-      </c>
+      <c r="A3" s="14"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="17">
-        <v>42533</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>34</v>
-      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="R3" s="26"/>
       <c r="S3" s="25"/>
       <c r="T3" s="31"/>
     </row>
@@ -4952,28 +4907,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_EQ组.xlsx
@@ -855,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T193"/>
+  <dimension ref="A1:T185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1721,226 +1721,218 @@
       <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="15"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="24"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="28"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="29"/>
     </row>
     <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="24"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
-      <c r="S29" s="28"/>
+      <c r="S29" s="19"/>
       <c r="T29" s="29"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="15"/>
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="24"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="29"/>
-    </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="15"/>
+      <c r="S30" s="22"/>
+    </row>
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="22"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29"/>
-    </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="15"/>
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="24"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="22"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="29"/>
-    </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="15"/>
+      <c r="S32" s="22"/>
+    </row>
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="24"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="29"/>
-    </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="15"/>
+      <c r="S33" s="22"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="24"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="29"/>
-    </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="15"/>
+      <c r="S34" s="22"/>
+    </row>
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="24"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="29"/>
-    </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="19"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="29"/>
-    </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="18"/>
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="19"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="29"/>
-    </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -1961,7 +1953,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -1982,7 +1974,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2003,7 +1995,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2024,7 +2016,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2045,7 +2037,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2066,7 +2058,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2087,7 +2079,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2108,7 +2100,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2129,7 +2121,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2150,7 +2142,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2932,7 +2924,7 @@
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
       <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="23"/>
       <c r="G85" s="21"/>
       <c r="H85" s="23"/>
@@ -2953,7 +2945,7 @@
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="23"/>
       <c r="G86" s="21"/>
       <c r="H86" s="23"/>
@@ -2974,7 +2966,7 @@
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
       <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="23"/>
       <c r="G87" s="21"/>
       <c r="H87" s="23"/>
@@ -2995,7 +2987,7 @@
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
       <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="23"/>
       <c r="G88" s="21"/>
       <c r="H88" s="23"/>
@@ -3016,7 +3008,7 @@
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="23"/>
       <c r="G89" s="21"/>
       <c r="H89" s="23"/>
@@ -3037,7 +3029,7 @@
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="23"/>
       <c r="G90" s="21"/>
       <c r="H90" s="23"/>
@@ -3053,12 +3045,12 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="23"/>
       <c r="G91" s="21"/>
       <c r="H91" s="23"/>
@@ -3074,12 +3066,12 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="23"/>
       <c r="G92" s="21"/>
       <c r="H92" s="23"/>
@@ -3095,11 +3087,11 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="15"/>
+      <c r="D93" s="21"/>
       <c r="E93" s="21"/>
       <c r="F93" s="23"/>
       <c r="G93" s="21"/>
@@ -3116,11 +3108,11 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="15"/>
+      <c r="D94" s="21"/>
       <c r="E94" s="21"/>
       <c r="F94" s="23"/>
       <c r="G94" s="21"/>
@@ -3137,11 +3129,11 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="15"/>
+      <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="23"/>
       <c r="G95" s="21"/>
@@ -3158,11 +3150,11 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="15"/>
+      <c r="D96" s="21"/>
       <c r="E96" s="21"/>
       <c r="F96" s="23"/>
       <c r="G96" s="21"/>
@@ -3179,11 +3171,11 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="15"/>
+      <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="23"/>
       <c r="G97" s="21"/>
@@ -3200,11 +3192,11 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
-      <c r="D98" s="15"/>
+      <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="23"/>
       <c r="G98" s="21"/>
@@ -4329,9 +4321,6 @@
       <c r="M151" s="21"/>
       <c r="N151" s="23"/>
       <c r="O151" s="22"/>
-      <c r="P151" s="21"/>
-      <c r="Q151" s="21"/>
-      <c r="R151" s="21"/>
       <c r="S151" s="22"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.15">
@@ -4350,9 +4339,6 @@
       <c r="M152" s="21"/>
       <c r="N152" s="23"/>
       <c r="O152" s="22"/>
-      <c r="P152" s="21"/>
-      <c r="Q152" s="21"/>
-      <c r="R152" s="21"/>
       <c r="S152" s="22"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.15">
@@ -4371,9 +4357,6 @@
       <c r="M153" s="21"/>
       <c r="N153" s="23"/>
       <c r="O153" s="22"/>
-      <c r="P153" s="21"/>
-      <c r="Q153" s="21"/>
-      <c r="R153" s="21"/>
       <c r="S153" s="22"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.15">
@@ -4392,9 +4375,6 @@
       <c r="M154" s="21"/>
       <c r="N154" s="23"/>
       <c r="O154" s="22"/>
-      <c r="P154" s="21"/>
-      <c r="Q154" s="21"/>
-      <c r="R154" s="21"/>
       <c r="S154" s="22"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.15">
@@ -4413,9 +4393,6 @@
       <c r="M155" s="21"/>
       <c r="N155" s="23"/>
       <c r="O155" s="22"/>
-      <c r="P155" s="21"/>
-      <c r="Q155" s="21"/>
-      <c r="R155" s="21"/>
       <c r="S155" s="22"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.15">
@@ -4434,9 +4411,6 @@
       <c r="M156" s="21"/>
       <c r="N156" s="23"/>
       <c r="O156" s="22"/>
-      <c r="P156" s="21"/>
-      <c r="Q156" s="21"/>
-      <c r="R156" s="21"/>
       <c r="S156" s="22"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.15">
@@ -4455,9 +4429,6 @@
       <c r="M157" s="21"/>
       <c r="N157" s="23"/>
       <c r="O157" s="22"/>
-      <c r="P157" s="21"/>
-      <c r="Q157" s="21"/>
-      <c r="R157" s="21"/>
       <c r="S157" s="22"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.15">
@@ -4476,9 +4447,6 @@
       <c r="M158" s="21"/>
       <c r="N158" s="23"/>
       <c r="O158" s="22"/>
-      <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
-      <c r="R158" s="21"/>
       <c r="S158" s="22"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.15">
@@ -4966,150 +4934,6 @@
       <c r="N185" s="23"/>
       <c r="O185" s="22"/>
       <c r="S185" s="22"/>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="23"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="23"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="21"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="22"/>
-      <c r="S186" s="22"/>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A187" s="21"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="23"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="21"/>
-      <c r="K187" s="21"/>
-      <c r="L187" s="21"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="22"/>
-      <c r="S187" s="22"/>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="23"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="21"/>
-      <c r="K188" s="21"/>
-      <c r="L188" s="21"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
-      <c r="S188" s="22"/>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A189" s="21"/>
-      <c r="B189" s="22"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="23"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="23"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="21"/>
-      <c r="K189" s="21"/>
-      <c r="L189" s="21"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-      <c r="S189" s="22"/>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="23"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="21"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-      <c r="S190" s="22"/>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A191" s="21"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="23"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="21"/>
-      <c r="K191" s="21"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
-      <c r="S191" s="22"/>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="23"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="23"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="21"/>
-      <c r="K192" s="21"/>
-      <c r="L192" s="21"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-      <c r="S192" s="22"/>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="23"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="21"/>
-      <c r="K193" s="21"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-      <c r="S193" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S3"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_EQ组.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>吴永余/周蓉/陈美/吴成义</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>【房东APP】- 品牌店铺展示功能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -156,10 +152,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>吴永余/周蓉</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>【BS】- CMS内容推荐位等管理</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -209,6 +201,28 @@
   </si>
   <si>
     <t>租客APP、租客PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余/周蓉</t>
+  </si>
+  <si>
+    <t>验证通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>吴永余/周蓉/陈美/吴成义</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +872,7 @@
   <dimension ref="A1:T185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>19</v>
@@ -971,20 +985,28 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="R2" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S2" s="28"/>
       <c r="T2" s="29"/>
     </row>
@@ -1021,14 +1043,22 @@
         <v>30</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="R3" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S3" s="28"/>
       <c r="T3" s="29"/>
     </row>
@@ -1037,13 +1067,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>20</v>
@@ -1064,13 +1094,23 @@
       <c r="K4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="L4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="R4" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
     </row>
@@ -1079,13 +1119,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>20</v>
@@ -1101,18 +1141,28 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="L5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="R5" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S5" s="28"/>
       <c r="T5" s="29"/>
     </row>
@@ -1121,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>20</v>
@@ -1143,18 +1193,28 @@
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="L6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="R6" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S6" s="28"/>
       <c r="T6" s="29"/>
     </row>
@@ -1163,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>19</v>
@@ -1185,18 +1245,28 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="L7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="R7" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S7" s="28"/>
       <c r="T7" s="29"/>
     </row>
@@ -1205,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>19</v>
@@ -1227,18 +1297,28 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
+      <c r="L8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="R8" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S8" s="28"/>
       <c r="T8" s="29"/>
     </row>
@@ -1247,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>19</v>
@@ -1269,18 +1349,28 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
+      <c r="L9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
+      <c r="R9" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S9" s="28"/>
       <c r="T9" s="29"/>
     </row>
@@ -1289,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>32</v>
@@ -1311,18 +1401,28 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
+      <c r="L10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
+      <c r="R10" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S10" s="28"/>
       <c r="T10" s="29"/>
     </row>
@@ -1331,13 +1431,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>20</v>
@@ -1353,18 +1453,28 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="24"/>
+      <c r="L11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="R11" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="S11" s="28"/>
       <c r="T11" s="29"/>
     </row>
